--- a/config_12.22/game_enter_btn_config.xlsx
+++ b/config_12.22/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1289,10 +1289,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>102#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>核弹</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1512,6 +1508,10 @@
   </si>
   <si>
     <t>cps_xycj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2140,7 +2140,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2574,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2625,10 +2625,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2636,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2647,10 +2647,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2717,7 +2717,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>276</v>
@@ -3057,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3082,7 +3082,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3095,11 +3095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3118,13 +3118,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3180,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4919,7 +4919,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4928,7 +4928,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4936,7 +4936,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,19 +4953,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4973,7 +4973,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4982,7 +4982,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4999,7 +4999,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5016,7 +5016,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5024,7 +5024,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5041,7 +5041,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5050,7 +5050,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5058,7 +5058,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5067,7 +5067,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5092,7 +5092,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5109,7 +5109,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5118,7 +5118,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5126,19 +5126,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5146,19 +5146,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +5394,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5481,10 +5481,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5537,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5556,7 +5556,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5579,7 +5579,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5651,10 +5651,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>

--- a/config_12.22/game_enter_btn_config.xlsx
+++ b/config_12.22/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1475,10 +1475,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#100;36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>11;16;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1499,10 +1495,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3;116#2#8#61#115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1512,6 +1504,14 @@
   </si>
   <si>
     <t>100#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;113;89;105#97;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;93;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2542,7 +2542,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2574,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3057,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3082,7 +3082,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3095,11 +3095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
+      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3180,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5146,19 +5146,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +5394,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5498,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5537,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5556,7 +5556,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
